--- a/R/data/Ranking.xlsx
+++ b/R/data/Ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirko/Projects/Private/Ranking/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE38F20-084F-254D-89C7-A5FE4BB69459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5043E07A-3B5C-D542-91C3-4A8C11342478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="15940" xr2:uid="{9AF43A09-E0F7-724A-A660-310DB79B33FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Marie</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Robert</t>
+  </si>
+  <si>
+    <t>Frauke</t>
+  </si>
+  <si>
+    <t>Alina</t>
   </si>
 </sst>
 </file>
@@ -413,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BBD1A4-A4DC-684C-AA8B-DD60554E2983}">
-  <dimension ref="A2:L6"/>
+  <dimension ref="A2:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,7 +430,7 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -461,8 +467,14 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44064</v>
       </c>
@@ -494,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44071</v>
       </c>
@@ -520,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44078</v>
       </c>
@@ -552,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44085</v>
       </c>
@@ -576,6 +588,38 @@
       </c>
       <c r="K6">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/Ranking.xlsx
+++ b/R/data/Ranking.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirko/Projects/Private/Ranking/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5043E07A-3B5C-D542-91C3-4A8C11342478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A402AB12-D25C-AD47-A391-94A88A33B0D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="15940" xr2:uid="{9AF43A09-E0F7-724A-A660-310DB79B33FD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27340" windowHeight="24940" activeTab="1" xr2:uid="{9AF43A09-E0F7-724A-A660-310DB79B33FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pools" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="16">
   <si>
     <t>Marie</t>
   </si>
@@ -67,6 +68,12 @@
   </si>
   <si>
     <t>Alina</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Piea</t>
   </si>
 </sst>
 </file>
@@ -419,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BBD1A4-A4DC-684C-AA8B-DD60554E2983}">
-  <dimension ref="A2:N7"/>
+  <dimension ref="A2:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,6 +629,3111 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32536D2E-1513-344F-8B83-6BDDCBD44F72}">
+  <dimension ref="A1:K109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+      <c r="H78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>7</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" t="s">
+        <v>4</v>
+      </c>
+      <c r="H92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+      <c r="G103">
+        <v>10</v>
+      </c>
+      <c r="H103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+      <c r="G106">
+        <v>4</v>
+      </c>
+      <c r="H106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107">
+        <v>10</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="F108">
+        <v>7</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>6</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
